--- a/question/进度表及曲库.xlsx
+++ b/question/进度表及曲库.xlsx
@@ -36,12 +36,7 @@
     <t xml:space="preserve">歌曲名</t>
   </si>
   <si>
-    <t xml:space="preserve">容易度（1-5）
-1：传唱度很高，歌词带歌名
-2：传唱度高
-3：传唱度中等，歌词带歌名
-4：传唱度较低
-5：</t>
+    <t xml:space="preserve">容易度</t>
   </si>
   <si>
     <t xml:space="preserve">错误歌手名</t>
@@ -2464,23 +2459,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.86792452830189"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6981132075472"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7311320754717"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7264150943396"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="66.1462264150943"/>
-    <col collapsed="false" hidden="false" max="28" min="9" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.99528301886792"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.1933962264151"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2311320754717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3490566037736"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="69.0141509433962"/>
+    <col collapsed="false" hidden="false" max="28" min="9" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="361.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -21636,12 +21631,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2216981132075"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8443396226415"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.9716981132075"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7169811320755"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22084,10 +22079,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.61792452830189"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3160377358491"/>
-    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="13.3537735849057"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.10849056603774"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.86792452830189"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.061320754717"/>
+    <col collapsed="false" hidden="false" max="26" min="3" style="0" width="13.9764150943396"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.48584905660377"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
